--- a/public/excel/exports/sales_report.xlsx
+++ b/public/excel/exports/sales_report.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
-  <si>
-    <t>(KUROMATSU) Daily Sales Report(2019/08/26 02:00:01)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
+  <si>
+    <t>(KUROMATSU) Daily Sales Report(2019/09/24 10:07:16)</t>
   </si>
   <si>
     <t>1. Sales Data</t>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>17.Non sweet beverage</t>
+  </si>
+  <si>
+    <t>18.sfdfs</t>
   </si>
   <si>
     <t>7. Item Sales Data</t>
@@ -761,10 +764,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q167"/>
+  <dimension ref="A1:Q168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E167" sqref="E167"/>
+      <selection activeCell="E168" sqref="E168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1510,35 +1513,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
-      <c r="A94" s="1" t="s">
+    <row r="93" spans="1:17">
+      <c r="A93" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="96" spans="1:17">
-      <c r="A96" s="4" t="s">
+      <c r="B93" s="3">
+        <v>0</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="A95" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B96" s="4" t="s">
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C97" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
-      <c r="A97" s="2"/>
-      <c r="B97" s="3">
-        <v>0</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="98" spans="1:17">
-      <c r="A98" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A98" s="2"/>
       <c r="B98" s="3">
         <v>0</v>
       </c>
@@ -1680,7 +1683,7 @@
     </row>
     <row r="111" spans="1:17">
       <c r="A111" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B111" s="3">
         <v>0</v>
@@ -1702,7 +1705,7 @@
     </row>
     <row r="113" spans="1:17">
       <c r="A113" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B113" s="3">
         <v>0</v>
@@ -1779,7 +1782,7 @@
     </row>
     <row r="120" spans="1:17">
       <c r="A120" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B120" s="3">
         <v>0</v>
@@ -1801,7 +1804,7 @@
     </row>
     <row r="122" spans="1:17">
       <c r="A122" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B122" s="3">
         <v>0</v>
@@ -1889,7 +1892,7 @@
     </row>
     <row r="130" spans="1:17">
       <c r="A130" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B130" s="3">
         <v>0</v>
@@ -2054,7 +2057,7 @@
     </row>
     <row r="145" spans="1:17">
       <c r="A145" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B145" s="3">
         <v>0</v>
@@ -2109,7 +2112,7 @@
     </row>
     <row r="150" spans="1:17">
       <c r="A150" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B150" s="3">
         <v>0</v>
@@ -2131,7 +2134,7 @@
     </row>
     <row r="152" spans="1:17">
       <c r="A152" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B152" s="3">
         <v>0</v>
@@ -2153,7 +2156,7 @@
     </row>
     <row r="154" spans="1:17">
       <c r="A154" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B154" s="3">
         <v>0</v>
@@ -2173,142 +2176,153 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:17">
-      <c r="A157" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="159" spans="1:17">
-      <c r="A159" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B159" s="4" t="s">
+    <row r="156" spans="1:17">
+      <c r="A156" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B156" s="3">
+        <v>0</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17">
+      <c r="A158" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C159" s="4" t="s">
+    </row>
+    <row r="160" spans="1:17">
+      <c r="A160" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B160" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D159" s="4" t="s">
+      <c r="C160" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E159" s="4" t="s">
+      <c r="D160" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F159" s="4" t="s">
+      <c r="E160" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G159" s="4" t="s">
+      <c r="F160" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H159" s="4" t="s">
+      <c r="G160" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I159" s="4" t="s">
+      <c r="H160" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="J159" s="4" t="s">
+      <c r="I160" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="K159" s="4" t="s">
+      <c r="J160" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="L159" s="4" t="s">
+      <c r="K160" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="M159" s="4" t="s">
+      <c r="L160" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="N159" s="4" t="s">
+      <c r="M160" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="O159" s="4" t="s">
+      <c r="N160" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="P159" s="4" t="s">
+      <c r="O160" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="Q159" s="4" t="s">
+      <c r="P160" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="161" spans="1:17">
-      <c r="A161" s="1" t="s">
+      <c r="Q160" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="163" spans="1:17">
-      <c r="A163" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B163" s="4" t="s">
+    <row r="162" spans="1:17">
+      <c r="A162" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C163" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D163" s="4" t="s">
+    </row>
+    <row r="164" spans="1:17">
+      <c r="A164" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C164" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E163" s="4" t="s">
+      <c r="D164" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F163" s="4" t="s">
+      <c r="E164" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G163" s="4" t="s">
+      <c r="F164" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H163" s="4" t="s">
+      <c r="G164" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I163" s="4" t="s">
+      <c r="H164" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="J163" s="4" t="s">
+      <c r="I164" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="K163" s="4" t="s">
+      <c r="J164" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="L163" s="4" t="s">
+      <c r="K164" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="M163" s="4" t="s">
+      <c r="L164" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="N163" s="4" t="s">
+      <c r="M164" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="O163" s="4" t="s">
+      <c r="N164" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="P163" s="4" t="s">
+      <c r="O164" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="Q163" s="4" t="s">
+      <c r="P164" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="165" spans="1:17">
-      <c r="A165" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="167" spans="1:17">
-      <c r="A167" s="4" t="s">
+      <c r="Q164" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17">
+      <c r="A166" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B167" s="4" t="s">
+    </row>
+    <row r="168" spans="1:17">
+      <c r="A168" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C167" s="4" t="s">
+      <c r="B168" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D167" s="4" t="s">
+      <c r="C168" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E167" s="4" t="s">
+      <c r="D168" s="4" t="s">
         <v>120</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/public/excel/exports/sales_report.xlsx
+++ b/public/excel/exports/sales_report.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
   <si>
-    <t>(KUROMATSU) Daily Sales Report(2019/09/24 10:07:16)</t>
+    <t>(KUROMATSU) Daily Sales Report(2019/09/24 10:17:17)</t>
   </si>
   <si>
     <t>1. Sales Data</t>

--- a/public/excel/exports/sales_report.xlsx
+++ b/public/excel/exports/sales_report.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
   <si>
-    <t>(KUROMATSU) Daily Sales Report(2019/09/24 10:17:17)</t>
+    <t>(KUROMATSU) Daily Sales Report(2019/09/24 11:06:30)</t>
   </si>
   <si>
     <t>1. Sales Data</t>

--- a/public/excel/exports/sales_report.xlsx
+++ b/public/excel/exports/sales_report.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
-  <si>
-    <t>(KUROMATSU) Daily Sales Report(2019/09/24 11:06:30)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
+  <si>
+    <t>(KUROMATSU) Daily Sales Report(2019/09/24 22:35:55)</t>
   </si>
   <si>
     <t>1. Sales Data</t>
@@ -26,33 +26,45 @@
     <t>Total Sales</t>
   </si>
   <si>
+    <t>$162.90</t>
+  </si>
+  <si>
+    <t>Gross Total</t>
+  </si>
+  <si>
+    <t>$146.61</t>
+  </si>
+  <si>
+    <t>Total GST(10%)</t>
+  </si>
+  <si>
+    <t>$16.29</t>
+  </si>
+  <si>
+    <t>Guest</t>
+  </si>
+  <si>
+    <t>Cash Income</t>
+  </si>
+  <si>
+    <t>Cash Count</t>
+  </si>
+  <si>
+    <t>Card Total</t>
+  </si>
+  <si>
     <t>$0.00</t>
   </si>
   <si>
-    <t>Gross Total</t>
-  </si>
-  <si>
-    <t>Total GST(10%)</t>
-  </si>
-  <si>
-    <t>Guest</t>
-  </si>
-  <si>
-    <t>Cash Income</t>
-  </si>
-  <si>
-    <t>Cash Count</t>
-  </si>
-  <si>
-    <t>Card Total</t>
-  </si>
-  <si>
     <t>Card Count</t>
   </si>
   <si>
     <t>Refund</t>
   </si>
   <si>
+    <t>$7.10</t>
+  </si>
+  <si>
     <t>Discount</t>
   </si>
   <si>
@@ -110,6 +122,15 @@
     <t>3. Discounts</t>
   </si>
   <si>
+    <t>17:16(1)</t>
+  </si>
+  <si>
+    <t>Reception</t>
+  </si>
+  <si>
+    <t>-$0.00</t>
+  </si>
+  <si>
     <t>4. Canceled Items</t>
   </si>
   <si>
@@ -183,6 +204,9 @@
   </si>
   <si>
     <t>17.Non sweet beverage</t>
+  </si>
+  <si>
+    <t>$488.70</t>
   </si>
   <si>
     <t>18.sfdfs</t>
@@ -764,17 +788,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q168"/>
+  <dimension ref="A1:Q173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E168" sqref="E168"/>
+      <selection activeCell="E173" sqref="E173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="74.981689" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="24.136963" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9.283447" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="7.426758" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="4.855957" bestFit="true" customWidth="true" style="0"/>
@@ -784,7 +808,7 @@
     <col min="10" max="10" width="4.855957" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="4.855957" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="4.855957" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="4.855957" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="4.855957" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="4.855957" bestFit="true" customWidth="true" style="0"/>
@@ -814,20 +838,20 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -835,7 +859,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>3</v>
@@ -843,23 +867,23 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3">
         <v>0</v>
@@ -867,52 +891,52 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -920,23 +944,23 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3">
         <v>0</v>
@@ -944,23 +968,23 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -968,23 +992,23 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -992,23 +1016,23 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B37" s="3">
         <v>0</v>
@@ -1016,240 +1040,237 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41"/>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44"/>
+      <c r="A41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>35</v>
+      <c r="A45"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" s="3">
-        <v>0</v>
-      </c>
-      <c r="B48" s="3">
-        <v>0</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>3</v>
+      <c r="A48" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49" s="3">
         <v>0</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B50" s="3">
         <v>0</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B51" s="3">
         <v>0</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B52" s="3">
         <v>0</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B53" s="3">
         <v>0</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B54" s="3">
         <v>0</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B55" s="3">
         <v>0</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B56" s="3">
         <v>0</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B57" s="3">
         <v>0</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B58" s="3">
         <v>0</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B59" s="3">
         <v>0</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B60" s="3">
         <v>0</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B62" s="3">
         <v>0</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B63" s="3">
         <v>0</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B65" s="3">
         <v>0</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>3</v>
@@ -1257,92 +1278,92 @@
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B67" s="3">
         <v>0</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B68" s="3">
         <v>0</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B69" s="3">
         <v>0</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B70" s="3">
         <v>0</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="3">
+        <v>22</v>
+      </c>
+      <c r="B71" s="3">
+        <v>0</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="3">
         <v>23</v>
       </c>
-      <c r="B71" s="3">
-        <v>0</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
-      <c r="A73" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
-      <c r="A75" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>35</v>
+      <c r="B72" s="3">
+        <v>0</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="1:17">
-      <c r="A76" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B76" s="3">
-        <v>0</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>3</v>
+      <c r="A76" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B77" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>3</v>
@@ -1350,65 +1371,65 @@
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B78" s="3">
         <v>0</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B79" s="3">
         <v>0</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B80" s="3">
         <v>0</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B81" s="3">
         <v>0</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B82" s="3">
         <v>0</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B83" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>3</v>
@@ -1416,65 +1437,65 @@
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B84" s="3">
         <v>0</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B85" s="3">
         <v>0</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B86" s="3">
         <v>0</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B87" s="3">
         <v>0</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B88" s="3">
         <v>0</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B89" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>3</v>
@@ -1482,10 +1503,10 @@
     </row>
     <row r="90" spans="1:17">
       <c r="A90" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B90" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>3</v>
@@ -1493,21 +1514,21 @@
     </row>
     <row r="91" spans="1:17">
       <c r="A91" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B91" s="3">
         <v>0</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B92" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>3</v>
@@ -1515,420 +1536,420 @@
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B93" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17">
-      <c r="A95" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17">
-      <c r="A97" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>35</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="A94" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B94" s="3">
+        <v>0</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="A96" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="98" spans="1:17">
-      <c r="A98" s="2"/>
-      <c r="B98" s="3">
-        <v>0</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>3</v>
+      <c r="A98" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="99" spans="1:17">
-      <c r="A99" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="A99" s="2"/>
       <c r="B99" s="3">
         <v>0</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:17">
       <c r="A100" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B100" s="3">
         <v>0</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:17">
       <c r="A101" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B101" s="3">
         <v>0</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:17">
       <c r="A102" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B102" s="3">
         <v>0</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:17">
       <c r="A103" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B103" s="3">
         <v>0</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:17">
       <c r="A104" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B104" s="3">
         <v>0</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:17">
       <c r="A105" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B105" s="3">
         <v>0</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:17">
       <c r="A106" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B106" s="3">
         <v>0</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:17">
       <c r="A107" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B107" s="3">
         <v>0</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:17">
       <c r="A108" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B108" s="3">
         <v>0</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:17">
       <c r="A109" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B109" s="3">
         <v>0</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:17">
       <c r="A110" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B110" s="3">
         <v>0</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:17">
       <c r="A111" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B111" s="3">
         <v>0</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:17">
       <c r="A112" s="2" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B112" s="3">
         <v>0</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:17">
       <c r="A113" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B113" s="3">
         <v>0</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:17">
       <c r="A114" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B114" s="3">
         <v>0</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:17">
       <c r="A115" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B115" s="3">
         <v>0</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:17">
       <c r="A116" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B116" s="3">
         <v>0</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:17">
       <c r="A117" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B117" s="3">
         <v>0</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:17">
       <c r="A118" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B118" s="3">
         <v>0</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:17">
       <c r="A119" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B119" s="3">
         <v>0</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:17">
       <c r="A120" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B120" s="3">
         <v>0</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:17">
       <c r="A121" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B121" s="3">
         <v>0</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:17">
       <c r="A122" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B122" s="3">
         <v>0</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:17">
       <c r="A123" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B123" s="3">
         <v>0</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:17">
       <c r="A124" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B124" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="125" spans="1:17">
       <c r="A125" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B125" s="3">
         <v>0</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:17">
       <c r="A126" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B126" s="3">
         <v>0</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:17">
       <c r="A127" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B127" s="3">
         <v>0</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:17">
       <c r="A128" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B128" s="3">
         <v>0</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:17">
       <c r="A129" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B129" s="3">
         <v>0</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:17">
       <c r="A130" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B130" s="3">
         <v>0</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:17">
       <c r="A131" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B131" s="3">
         <v>0</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:17">
       <c r="A132" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B132" s="3">
         <v>0</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:17">
       <c r="A133" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B133" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>3</v>
@@ -1936,393 +1957,616 @@
     </row>
     <row r="134" spans="1:17">
       <c r="A134" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B134" s="3">
         <v>0</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:17">
       <c r="A135" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B135" s="3">
         <v>0</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:17">
       <c r="A136" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B136" s="3">
         <v>0</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:17">
       <c r="A137" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B137" s="3">
         <v>0</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:17">
       <c r="A138" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B138" s="3">
         <v>0</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:17">
       <c r="A139" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B139" s="3">
         <v>0</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:17">
       <c r="A140" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B140" s="3">
         <v>0</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:17">
       <c r="A141" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B141" s="3">
         <v>0</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:17">
       <c r="A142" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B142" s="3">
         <v>0</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" spans="1:17">
       <c r="A143" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B143" s="3">
         <v>0</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" spans="1:17">
       <c r="A144" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B144" s="3">
         <v>0</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:17">
       <c r="A145" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B145" s="3">
         <v>0</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:17">
       <c r="A146" s="2" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B146" s="3">
         <v>0</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:17">
       <c r="A147" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B147" s="3">
         <v>0</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:17">
       <c r="A148" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B148" s="3">
         <v>0</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:17">
       <c r="A149" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B149" s="3">
         <v>0</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:17">
       <c r="A150" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B150" s="3">
         <v>0</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151" spans="1:17">
       <c r="A151" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B151" s="3">
         <v>0</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:17">
       <c r="A152" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B152" s="3">
         <v>0</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:17">
       <c r="A153" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B153" s="3">
         <v>0</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="154" spans="1:17">
       <c r="A154" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B154" s="3">
         <v>0</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155" spans="1:17">
       <c r="A155" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B155" s="3">
         <v>0</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B156" s="3">
         <v>0</v>
       </c>
       <c r="C156" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17">
+      <c r="A157" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B157" s="3">
+        <v>0</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17">
+      <c r="A159" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17">
+      <c r="A161" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H161" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I161" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J161" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K161" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="L161" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M161" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N161" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="O161" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P161" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q161" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17">
+      <c r="A162" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B162" s="3">
+        <v>9</v>
+      </c>
+      <c r="C162" s="3">
+        <v>0</v>
+      </c>
+      <c r="D162" s="3">
+        <v>0</v>
+      </c>
+      <c r="E162" s="3">
+        <v>0</v>
+      </c>
+      <c r="F162" s="3">
+        <v>0</v>
+      </c>
+      <c r="G162" s="3">
+        <v>0</v>
+      </c>
+      <c r="H162" s="3">
+        <v>0</v>
+      </c>
+      <c r="I162" s="3">
+        <v>0</v>
+      </c>
+      <c r="J162" s="3">
+        <v>0</v>
+      </c>
+      <c r="K162" s="3">
+        <v>0</v>
+      </c>
+      <c r="L162" s="3">
+        <v>0</v>
+      </c>
+      <c r="M162" s="3">
+        <v>9</v>
+      </c>
+      <c r="N162" s="3">
+        <v>0</v>
+      </c>
+      <c r="O162" s="3">
+        <v>0</v>
+      </c>
+      <c r="P162" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q162" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17">
+      <c r="A163" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B163" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="158" spans="1:17">
-      <c r="A158" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="160" spans="1:17">
-      <c r="A160" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F160" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G160" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H160" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I160" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J160" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K160" s="4" t="s">
+      <c r="C163" s="3">
+        <v>0</v>
+      </c>
+      <c r="D163" s="3">
+        <v>0</v>
+      </c>
+      <c r="E163" s="3">
+        <v>0</v>
+      </c>
+      <c r="F163" s="3">
+        <v>0</v>
+      </c>
+      <c r="G163" s="3">
+        <v>0</v>
+      </c>
+      <c r="H163" s="3">
+        <v>0</v>
+      </c>
+      <c r="I163" s="3">
+        <v>0</v>
+      </c>
+      <c r="J163" s="3">
+        <v>0</v>
+      </c>
+      <c r="K163" s="3">
+        <v>0</v>
+      </c>
+      <c r="L163" s="3">
+        <v>0</v>
+      </c>
+      <c r="M163" s="3">
+        <v>3</v>
+      </c>
+      <c r="N163" s="3">
+        <v>0</v>
+      </c>
+      <c r="O163" s="3">
+        <v>0</v>
+      </c>
+      <c r="P163" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q163" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17">
+      <c r="A165" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17">
+      <c r="A167" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C167" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="L160" s="4" t="s">
+      <c r="D167" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="M160" s="4" t="s">
+      <c r="E167" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="N160" s="4" t="s">
+      <c r="F167" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="O160" s="4" t="s">
+      <c r="G167" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="P160" s="4" t="s">
+      <c r="H167" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="Q160" s="4" t="s">
+      <c r="I167" s="4" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="162" spans="1:17">
-      <c r="A162" s="1" t="s">
+      <c r="J167" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="164" spans="1:17">
-      <c r="A164" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B164" s="4" t="s">
+      <c r="K167" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C164" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F164" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G164" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H164" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I164" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J164" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K164" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="L164" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="M164" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="N164" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="O164" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="P164" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q164" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="166" spans="1:17">
-      <c r="A166" s="1" t="s">
+      <c r="L167" s="4" t="s">
         <v>116</v>
       </c>
+      <c r="M167" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N167" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="O167" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P167" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q167" s="4" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="168" spans="1:17">
-      <c r="A168" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E168" s="4" t="s">
-        <v>121</v>
+      <c r="A168" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B168" s="3">
+        <v>-3735449</v>
+      </c>
+      <c r="C168" s="3">
+        <v>0</v>
+      </c>
+      <c r="D168" s="3">
+        <v>0</v>
+      </c>
+      <c r="E168" s="3">
+        <v>0</v>
+      </c>
+      <c r="F168" s="3">
+        <v>0</v>
+      </c>
+      <c r="G168" s="3">
+        <v>0</v>
+      </c>
+      <c r="H168" s="3">
+        <v>0</v>
+      </c>
+      <c r="I168" s="3">
+        <v>0</v>
+      </c>
+      <c r="J168" s="3">
+        <v>0</v>
+      </c>
+      <c r="K168" s="3">
+        <v>0</v>
+      </c>
+      <c r="L168" s="3">
+        <v>0</v>
+      </c>
+      <c r="M168" s="3">
+        <v>-3735449</v>
+      </c>
+      <c r="N168" s="3">
+        <v>0</v>
+      </c>
+      <c r="O168" s="3">
+        <v>0</v>
+      </c>
+      <c r="P168" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q168" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17">
+      <c r="A169" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B169" s="3">
+        <v>-8716047</v>
+      </c>
+      <c r="C169" s="3">
+        <v>0</v>
+      </c>
+      <c r="D169" s="3">
+        <v>0</v>
+      </c>
+      <c r="E169" s="3">
+        <v>0</v>
+      </c>
+      <c r="F169" s="3">
+        <v>0</v>
+      </c>
+      <c r="G169" s="3">
+        <v>0</v>
+      </c>
+      <c r="H169" s="3">
+        <v>0</v>
+      </c>
+      <c r="I169" s="3">
+        <v>0</v>
+      </c>
+      <c r="J169" s="3">
+        <v>0</v>
+      </c>
+      <c r="K169" s="3">
+        <v>0</v>
+      </c>
+      <c r="L169" s="3">
+        <v>0</v>
+      </c>
+      <c r="M169" s="3">
+        <v>-8716047</v>
+      </c>
+      <c r="N169" s="3">
+        <v>0</v>
+      </c>
+      <c r="O169" s="3">
+        <v>0</v>
+      </c>
+      <c r="P169" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q169" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17">
+      <c r="A171" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17">
+      <c r="A173" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/public/excel/exports/sales_report.xlsx
+++ b/public/excel/exports/sales_report.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
-  <si>
-    <t>(KUROMATSU) Daily Sales Report(2019/09/24 22:35:55)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
+  <si>
+    <t>(KUROMATSU) Daily Sales Report(2019/09/25 02:33:53)</t>
   </si>
   <si>
     <t>1. Sales Data</t>
@@ -26,21 +26,15 @@
     <t>Total Sales</t>
   </si>
   <si>
-    <t>$162.90</t>
+    <t>$0.00</t>
   </si>
   <si>
     <t>Gross Total</t>
   </si>
   <si>
-    <t>$146.61</t>
-  </si>
-  <si>
     <t>Total GST(10%)</t>
   </si>
   <si>
-    <t>$16.29</t>
-  </si>
-  <si>
     <t>Guest</t>
   </si>
   <si>
@@ -53,18 +47,12 @@
     <t>Card Total</t>
   </si>
   <si>
-    <t>$0.00</t>
-  </si>
-  <si>
     <t>Card Count</t>
   </si>
   <si>
     <t>Refund</t>
   </si>
   <si>
-    <t>$7.10</t>
-  </si>
-  <si>
     <t>Discount</t>
   </si>
   <si>
@@ -122,15 +110,6 @@
     <t>3. Discounts</t>
   </si>
   <si>
-    <t>17:16(1)</t>
-  </si>
-  <si>
-    <t>Reception</t>
-  </si>
-  <si>
-    <t>-$0.00</t>
-  </si>
-  <si>
     <t>4. Canceled Items</t>
   </si>
   <si>
@@ -204,9 +183,6 @@
   </si>
   <si>
     <t>17.Non sweet beverage</t>
-  </si>
-  <si>
-    <t>$488.70</t>
   </si>
   <si>
     <t>18.sfdfs</t>
@@ -788,17 +764,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q173"/>
+  <dimension ref="A1:Q168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E173" sqref="E173"/>
+      <selection activeCell="E168" sqref="E168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="74.981689" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="24.136963" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8.712158" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="7.426758" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="4.855957" bestFit="true" customWidth="true" style="0"/>
@@ -808,7 +784,7 @@
     <col min="10" max="10" width="4.855957" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="4.855957" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="4.855957" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="4.855957" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="4.855957" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="4.855957" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="4.855957" bestFit="true" customWidth="true" style="0"/>
@@ -838,20 +814,20 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -859,7 +835,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>3</v>
@@ -867,23 +843,23 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
         <v>0</v>
@@ -891,52 +867,52 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -944,23 +920,23 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B25" s="3">
         <v>0</v>
@@ -968,23 +944,23 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -992,23 +968,23 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -1016,23 +992,23 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B37" s="3">
         <v>0</v>
@@ -1040,237 +1016,240 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44"/>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="2" t="s">
+      <c r="C47" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45"/>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="1" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>42</v>
+      <c r="A48" s="3">
+        <v>0</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B49" s="3">
         <v>0</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B50" s="3">
         <v>0</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B51" s="3">
         <v>0</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B52" s="3">
         <v>0</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B53" s="3">
         <v>0</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B54" s="3">
         <v>0</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B55" s="3">
         <v>0</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B56" s="3">
         <v>0</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B57" s="3">
         <v>0</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B58" s="3">
         <v>0</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B59" s="3">
         <v>0</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B60" s="3">
         <v>0</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B62" s="3">
         <v>0</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B63" s="3">
         <v>0</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B65" s="3">
         <v>0</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B66" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>3</v>
@@ -1278,92 +1257,92 @@
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B67" s="3">
         <v>0</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B68" s="3">
         <v>0</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B69" s="3">
         <v>0</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B70" s="3">
         <v>0</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B71" s="3">
         <v>0</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17">
-      <c r="A72" s="3">
-        <v>23</v>
-      </c>
-      <c r="B72" s="3">
-        <v>0</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17">
-      <c r="A74" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:17">
-      <c r="A76" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>42</v>
+      <c r="A76" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" s="3">
+        <v>0</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B77" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>3</v>
@@ -1371,65 +1350,65 @@
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B78" s="3">
         <v>0</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B79" s="3">
         <v>0</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B80" s="3">
         <v>0</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B81" s="3">
         <v>0</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B82" s="3">
         <v>0</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B83" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>3</v>
@@ -1437,65 +1416,65 @@
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B84" s="3">
         <v>0</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B85" s="3">
         <v>0</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B86" s="3">
         <v>0</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B87" s="3">
         <v>0</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B88" s="3">
         <v>0</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B89" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>3</v>
@@ -1503,10 +1482,10 @@
     </row>
     <row r="90" spans="1:17">
       <c r="A90" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B90" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>3</v>
@@ -1514,21 +1493,21 @@
     </row>
     <row r="91" spans="1:17">
       <c r="A91" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B91" s="3">
         <v>0</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B92" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>3</v>
@@ -1536,420 +1515,420 @@
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B93" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17">
-      <c r="A94" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B94" s="3">
-        <v>0</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17">
-      <c r="A96" s="1" t="s">
-        <v>65</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="A95" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:17">
-      <c r="A98" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>42</v>
+      <c r="A98" s="2"/>
+      <c r="B98" s="3">
+        <v>0</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:17">
-      <c r="A99" s="2"/>
+      <c r="A99" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="B99" s="3">
         <v>0</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:17">
       <c r="A100" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B100" s="3">
         <v>0</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:17">
       <c r="A101" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B101" s="3">
         <v>0</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:17">
       <c r="A102" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B102" s="3">
         <v>0</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:17">
       <c r="A103" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B103" s="3">
         <v>0</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:17">
       <c r="A104" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B104" s="3">
         <v>0</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:17">
       <c r="A105" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B105" s="3">
         <v>0</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:17">
       <c r="A106" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B106" s="3">
         <v>0</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:17">
       <c r="A107" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B107" s="3">
         <v>0</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:17">
       <c r="A108" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B108" s="3">
         <v>0</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:17">
       <c r="A109" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B109" s="3">
         <v>0</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:17">
       <c r="A110" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B110" s="3">
         <v>0</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:17">
       <c r="A111" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B111" s="3">
         <v>0</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:17">
       <c r="A112" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B112" s="3">
         <v>0</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:17">
       <c r="A113" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B113" s="3">
         <v>0</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:17">
       <c r="A114" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B114" s="3">
         <v>0</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:17">
       <c r="A115" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B115" s="3">
         <v>0</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:17">
       <c r="A116" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B116" s="3">
         <v>0</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:17">
       <c r="A117" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B117" s="3">
         <v>0</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:17">
       <c r="A118" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B118" s="3">
         <v>0</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:17">
       <c r="A119" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B119" s="3">
         <v>0</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:17">
       <c r="A120" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B120" s="3">
         <v>0</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:17">
       <c r="A121" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B121" s="3">
         <v>0</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:17">
       <c r="A122" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B122" s="3">
         <v>0</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:17">
       <c r="A123" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B123" s="3">
         <v>0</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:17">
       <c r="A124" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B124" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:17">
       <c r="A125" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B125" s="3">
         <v>0</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:17">
       <c r="A126" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B126" s="3">
         <v>0</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:17">
       <c r="A127" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B127" s="3">
         <v>0</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:17">
       <c r="A128" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B128" s="3">
         <v>0</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:17">
       <c r="A129" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B129" s="3">
         <v>0</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:17">
       <c r="A130" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B130" s="3">
         <v>0</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:17">
       <c r="A131" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B131" s="3">
         <v>0</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:17">
       <c r="A132" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B132" s="3">
         <v>0</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:17">
       <c r="A133" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B133" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>3</v>
@@ -1957,616 +1936,393 @@
     </row>
     <row r="134" spans="1:17">
       <c r="A134" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B134" s="3">
         <v>0</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:17">
       <c r="A135" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B135" s="3">
         <v>0</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:17">
       <c r="A136" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B136" s="3">
         <v>0</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:17">
       <c r="A137" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B137" s="3">
         <v>0</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:17">
       <c r="A138" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B138" s="3">
         <v>0</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:17">
       <c r="A139" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B139" s="3">
         <v>0</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:17">
       <c r="A140" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B140" s="3">
         <v>0</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:17">
       <c r="A141" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B141" s="3">
         <v>0</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:17">
       <c r="A142" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B142" s="3">
         <v>0</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:17">
       <c r="A143" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B143" s="3">
         <v>0</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:17">
       <c r="A144" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B144" s="3">
         <v>0</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:17">
       <c r="A145" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B145" s="3">
         <v>0</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:17">
       <c r="A146" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B146" s="3">
         <v>0</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:17">
       <c r="A147" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B147" s="3">
         <v>0</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:17">
       <c r="A148" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B148" s="3">
         <v>0</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:17">
       <c r="A149" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B149" s="3">
         <v>0</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:17">
       <c r="A150" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B150" s="3">
         <v>0</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:17">
       <c r="A151" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B151" s="3">
         <v>0</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:17">
       <c r="A152" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B152" s="3">
         <v>0</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:17">
       <c r="A153" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B153" s="3">
         <v>0</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:17">
       <c r="A154" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B154" s="3">
         <v>0</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:17">
       <c r="A155" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B155" s="3">
         <v>0</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B156" s="3">
         <v>0</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="157" spans="1:17">
-      <c r="A157" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B157" s="3">
-        <v>0</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="159" spans="1:17">
-      <c r="A159" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17">
+      <c r="A158" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17">
+      <c r="A160" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I160" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="161" spans="1:17">
-      <c r="A161" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B161" s="4" t="s">
+      <c r="J160" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="K160" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D161" s="4" t="s">
+      <c r="L160" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E161" s="4" t="s">
+      <c r="M160" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F161" s="4" t="s">
+      <c r="N160" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G161" s="4" t="s">
+      <c r="O160" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H161" s="4" t="s">
+      <c r="P160" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="I161" s="4" t="s">
+      <c r="Q160" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="J161" s="4" t="s">
+    </row>
+    <row r="162" spans="1:17">
+      <c r="A162" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K161" s="4" t="s">
+    </row>
+    <row r="164" spans="1:17">
+      <c r="A164" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B164" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="L161" s="4" t="s">
+      <c r="C164" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H164" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I164" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J164" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K164" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L164" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M164" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="N164" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="O164" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="P164" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q164" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17">
+      <c r="A166" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="M161" s="4" t="s">
+    </row>
+    <row r="168" spans="1:17">
+      <c r="A168" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="N161" s="4" t="s">
+      <c r="B168" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="O161" s="4" t="s">
+      <c r="C168" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="P161" s="4" t="s">
+      <c r="D168" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="Q161" s="4" t="s">
+      <c r="E168" s="4" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="162" spans="1:17">
-      <c r="A162" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B162" s="3">
-        <v>9</v>
-      </c>
-      <c r="C162" s="3">
-        <v>0</v>
-      </c>
-      <c r="D162" s="3">
-        <v>0</v>
-      </c>
-      <c r="E162" s="3">
-        <v>0</v>
-      </c>
-      <c r="F162" s="3">
-        <v>0</v>
-      </c>
-      <c r="G162" s="3">
-        <v>0</v>
-      </c>
-      <c r="H162" s="3">
-        <v>0</v>
-      </c>
-      <c r="I162" s="3">
-        <v>0</v>
-      </c>
-      <c r="J162" s="3">
-        <v>0</v>
-      </c>
-      <c r="K162" s="3">
-        <v>0</v>
-      </c>
-      <c r="L162" s="3">
-        <v>0</v>
-      </c>
-      <c r="M162" s="3">
-        <v>9</v>
-      </c>
-      <c r="N162" s="3">
-        <v>0</v>
-      </c>
-      <c r="O162" s="3">
-        <v>0</v>
-      </c>
-      <c r="P162" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q162" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:17">
-      <c r="A163" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B163" s="3">
-        <v>3</v>
-      </c>
-      <c r="C163" s="3">
-        <v>0</v>
-      </c>
-      <c r="D163" s="3">
-        <v>0</v>
-      </c>
-      <c r="E163" s="3">
-        <v>0</v>
-      </c>
-      <c r="F163" s="3">
-        <v>0</v>
-      </c>
-      <c r="G163" s="3">
-        <v>0</v>
-      </c>
-      <c r="H163" s="3">
-        <v>0</v>
-      </c>
-      <c r="I163" s="3">
-        <v>0</v>
-      </c>
-      <c r="J163" s="3">
-        <v>0</v>
-      </c>
-      <c r="K163" s="3">
-        <v>0</v>
-      </c>
-      <c r="L163" s="3">
-        <v>0</v>
-      </c>
-      <c r="M163" s="3">
-        <v>3</v>
-      </c>
-      <c r="N163" s="3">
-        <v>0</v>
-      </c>
-      <c r="O163" s="3">
-        <v>0</v>
-      </c>
-      <c r="P163" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q163" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:17">
-      <c r="A165" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="167" spans="1:17">
-      <c r="A167" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E167" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F167" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G167" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H167" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I167" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="J167" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="K167" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="L167" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="M167" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="N167" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="O167" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="P167" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q167" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="168" spans="1:17">
-      <c r="A168" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B168" s="3">
-        <v>-3735449</v>
-      </c>
-      <c r="C168" s="3">
-        <v>0</v>
-      </c>
-      <c r="D168" s="3">
-        <v>0</v>
-      </c>
-      <c r="E168" s="3">
-        <v>0</v>
-      </c>
-      <c r="F168" s="3">
-        <v>0</v>
-      </c>
-      <c r="G168" s="3">
-        <v>0</v>
-      </c>
-      <c r="H168" s="3">
-        <v>0</v>
-      </c>
-      <c r="I168" s="3">
-        <v>0</v>
-      </c>
-      <c r="J168" s="3">
-        <v>0</v>
-      </c>
-      <c r="K168" s="3">
-        <v>0</v>
-      </c>
-      <c r="L168" s="3">
-        <v>0</v>
-      </c>
-      <c r="M168" s="3">
-        <v>-3735449</v>
-      </c>
-      <c r="N168" s="3">
-        <v>0</v>
-      </c>
-      <c r="O168" s="3">
-        <v>0</v>
-      </c>
-      <c r="P168" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q168" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:17">
-      <c r="A169" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B169" s="3">
-        <v>-8716047</v>
-      </c>
-      <c r="C169" s="3">
-        <v>0</v>
-      </c>
-      <c r="D169" s="3">
-        <v>0</v>
-      </c>
-      <c r="E169" s="3">
-        <v>0</v>
-      </c>
-      <c r="F169" s="3">
-        <v>0</v>
-      </c>
-      <c r="G169" s="3">
-        <v>0</v>
-      </c>
-      <c r="H169" s="3">
-        <v>0</v>
-      </c>
-      <c r="I169" s="3">
-        <v>0</v>
-      </c>
-      <c r="J169" s="3">
-        <v>0</v>
-      </c>
-      <c r="K169" s="3">
-        <v>0</v>
-      </c>
-      <c r="L169" s="3">
-        <v>0</v>
-      </c>
-      <c r="M169" s="3">
-        <v>-8716047</v>
-      </c>
-      <c r="N169" s="3">
-        <v>0</v>
-      </c>
-      <c r="O169" s="3">
-        <v>0</v>
-      </c>
-      <c r="P169" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q169" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:17">
-      <c r="A171" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="173" spans="1:17">
-      <c r="A173" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D173" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E173" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/public/excel/exports/sales_report.xlsx
+++ b/public/excel/exports/sales_report.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
   <si>
-    <t>(KUROMATSU) Daily Sales Report(2019/09/25 02:33:53)</t>
+    <t>(KUROMATSU) Daily Sales Report(2019/09/25 04:44:18)</t>
   </si>
   <si>
     <t>1. Sales Data</t>
